--- a/WAIS-WMS_corr_matrix.xlsx
+++ b/WAIS-WMS_corr_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cegiii/Desktop/neuro_mcmc_app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A3D2FD7-C130-4B44-9FD6-F711B7DCD362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B999B-5185-224F-9CD1-D23DBE4A0F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="34200" windowHeight="21460" xr2:uid="{6FDBC1DA-91F8-8A49-BDBC-61692A4AE938}"/>
+    <workbookView xWindow="8140" yWindow="680" windowWidth="26060" windowHeight="19820" xr2:uid="{6FDBC1DA-91F8-8A49-BDBC-61692A4AE938}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -529,10 +530,10 @@
   <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AK39" sqref="AK39"/>
+      <selection pane="bottomRight" activeCell="AL38" sqref="AL38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,2359 +658,4291 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.72</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="U3" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>0.62</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.72</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.89</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V4" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>0.33</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.53</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.81</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U5" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>0.42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>0.52</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>0.42</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.21</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.91</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.45</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0.4</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="T7" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="U7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AL7" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>0.91</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>0.47</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.37</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.66</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="R8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="U8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0.26</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.71</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.44</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0.37</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.59</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>0.7</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="U9" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>0.72</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>0.54</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>0.54</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>0.44</v>
       </c>
-      <c r="F10">
-        <v>0.39</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.64</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>0.67</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.63</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="U10" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>0.52</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>0.63</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.63</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>0.43</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0.49</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0.48</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>0.47</v>
       </c>
-      <c r="I11">
-        <v>0.46</v>
-      </c>
-      <c r="J11">
-        <v>0.46</v>
-      </c>
-      <c r="K11">
+      <c r="I11" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K11" s="1">
         <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.61</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="U11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>0.52</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.67</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>0.67</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>0.47</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.44</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.47</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.48</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.47</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>0.49</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>0.61</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="1">
         <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="U12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0.31</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>0.54</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>0.9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.9</v>
       </c>
-      <c r="E13">
-        <v>0.46</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F13" s="1">
         <v>0.44</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0.5</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>0.48</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>0.47</v>
       </c>
-      <c r="J13">
-        <v>0.46</v>
-      </c>
-      <c r="K13">
+      <c r="J13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K13" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>0.59</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="U13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>0.89</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>0.89</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>0.49</v>
       </c>
-      <c r="F14">
-        <v>0.46</v>
-      </c>
-      <c r="G14">
+      <c r="F14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G14" s="1">
         <v>0.52</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.51</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>0.51</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>0.5</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>0.62</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>0.6</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0.31</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>0.63</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>0.63</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>0.44</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>0.49</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>0.51</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>0.54</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="1">
         <v>0.51</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="1">
         <v>0.51</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="1">
         <v>0.52</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>0.53</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="1">
         <v>0.6</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="1">
         <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>0.61</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>0.61</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>0.43</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>0.4</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>0.5</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>0.51</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>0.5</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="1">
         <v>0.52</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>0.5</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>0.52</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>0.52</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>0.52</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>1</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17">
-        <v>0.46</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.53</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>0.53</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>0.81</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>0.45</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>0.4</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>0.42</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.41</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="1">
         <v>0.4</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="1">
         <v>0.41</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="1">
         <v>0.45</v>
       </c>
-      <c r="M17">
-        <v>0.46</v>
-      </c>
-      <c r="N17">
+      <c r="M17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N17" s="1">
         <v>0.5</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="1">
         <v>0.41</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="1">
         <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0.27</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0.36</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>0.33</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>0.33</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>0.81</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>0.23</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>0.32</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>0.34</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="1">
         <v>0.31</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="1">
         <v>0.31</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="1">
         <v>0.3</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="1">
         <v>0.37</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="1">
         <v>0.31</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="1">
         <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="U18" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0.17</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0.42</v>
       </c>
-      <c r="C19">
-        <v>0.39</v>
-      </c>
-      <c r="D19">
-        <v>0.39</v>
-      </c>
-      <c r="E19">
+      <c r="C19" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="E19" s="1">
         <v>0.6</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>0.34</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>0.35</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>0.42</v>
       </c>
-      <c r="I19">
-        <v>0.39</v>
-      </c>
-      <c r="J19">
+      <c r="I19" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="J19" s="1">
         <v>0.36</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="1">
         <v>0.32</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="1">
         <v>0.32</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>0.34</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="1">
         <v>0.36</v>
       </c>
-      <c r="O19">
-        <v>0.46</v>
-      </c>
-      <c r="P19">
+      <c r="O19" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="P19" s="1">
         <v>0.32</v>
       </c>
-      <c r="Q19">
-        <v>0.46</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="R19" s="1">
         <v>0.5</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="1">
         <v>1</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>0.45</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>0.52</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>0.52</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>0.4</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>0.41</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>0.42</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0.4</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="1">
         <v>0.4</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="1">
         <v>0.38</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="1">
         <v>0.42</v>
       </c>
-      <c r="M20">
-        <v>0.46</v>
-      </c>
-      <c r="N20">
-        <v>0.46</v>
-      </c>
-      <c r="O20">
+      <c r="M20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="O20" s="1">
         <v>0.53</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="1">
         <v>0.41</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="1">
         <v>0.52</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="1">
         <v>0.41</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="1">
         <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>0.45</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E21">
-        <v>0.46</v>
-      </c>
-      <c r="F21">
+      <c r="E21" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.45</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>0.42</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>0.4</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>0.38</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="1">
         <v>0.42</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="1">
         <v>0.47</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="1">
         <v>0.5</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>0.5</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="1">
         <v>0.52</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="1">
         <v>0.47</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="1">
         <v>0.47</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="1">
         <v>0.45</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="1">
         <v>0.32</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="1">
         <v>0.43</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="1">
         <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.52</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0.49</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>0.48</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>0.59</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>0.59</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>0.49</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>0.52</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>0.45</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="1">
         <v>0.42</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>0.42</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="1">
         <v>0.44</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="1">
         <v>0.51</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="1">
         <v>0.51</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>0.51</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="1">
         <v>0.47</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="1">
         <v>0.51</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="1">
         <v>0.36</v>
       </c>
-      <c r="T22">
+      <c r="T22" s="1">
         <v>0.45</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="1">
         <v>0.52</v>
       </c>
-      <c r="V22">
+      <c r="V22" s="1">
         <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>0.51</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>0.53</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>0.53</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="F23">
-        <v>0.46</v>
-      </c>
-      <c r="G23">
-        <v>0.46</v>
-      </c>
-      <c r="H23">
+      <c r="F23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="H23" s="1">
         <v>0.47</v>
       </c>
-      <c r="I23">
-        <v>0.46</v>
-      </c>
-      <c r="J23">
-        <v>0.46</v>
-      </c>
-      <c r="K23">
+      <c r="I23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="K23" s="1">
         <v>0.43</v>
       </c>
-      <c r="L23">
-        <v>0.46</v>
-      </c>
-      <c r="M23">
-        <v>0.46</v>
-      </c>
-      <c r="N23">
+      <c r="L23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N23" s="1">
         <v>0.48</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="1">
         <v>0.45</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="1">
         <v>0.54</v>
       </c>
-      <c r="R23">
-        <v>0.39</v>
-      </c>
-      <c r="S23">
+      <c r="R23" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="S23" s="1">
         <v>0.51</v>
       </c>
-      <c r="T23">
+      <c r="T23" s="1">
         <v>0.54</v>
       </c>
-      <c r="U23">
-        <v>0.46</v>
-      </c>
-      <c r="V23">
+      <c r="U23" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="V23" s="1">
         <v>0.47</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="1">
         <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>0.24</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>0.38</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>0.44</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>0.44</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <v>0.37</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>0.91</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>0.37</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>0.34</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0.33</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="1">
         <v>0.35</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="1">
         <v>0.44</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="1">
         <v>0.38</v>
       </c>
-      <c r="M24">
-        <v>0.39</v>
-      </c>
-      <c r="N24">
+      <c r="M24" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="N24" s="1">
         <v>0.4</v>
       </c>
-      <c r="O24">
-        <v>0.39</v>
-      </c>
-      <c r="P24">
+      <c r="O24" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="P24" s="1">
         <v>0.36</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="1">
         <v>0.4</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="1">
         <v>0.2</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="1">
         <v>0.31</v>
       </c>
-      <c r="T24">
+      <c r="T24" s="1">
         <v>0.35</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="1">
         <v>0.4</v>
       </c>
-      <c r="V24">
+      <c r="V24" s="1">
         <v>0.47</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="1">
         <v>0.4</v>
       </c>
-      <c r="X24">
+      <c r="X24" s="1">
         <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0.36</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
-        <v>0.39</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="C25" s="1">
         <v>0.47</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>0.47</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <v>0.4</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="1">
         <v>0.91</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="1">
         <v>0.36</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>0.34</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>0.33</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="1">
         <v>0.35</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="1">
         <v>0.45</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="1">
         <v>0.42</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>0.4</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="1">
         <v>0.43</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="1">
         <v>0.41</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="1">
         <v>0.37</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="1">
         <v>0.42</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="1">
         <v>0.22</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="1">
         <v>0.31</v>
       </c>
-      <c r="T25">
+      <c r="T25" s="1">
         <v>0.37</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="1">
         <v>0.43</v>
       </c>
-      <c r="V25">
+      <c r="V25" s="1">
         <v>0.48</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="1">
         <v>0.43</v>
       </c>
-      <c r="X25">
+      <c r="X25" s="1">
         <v>0.65</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" s="1">
         <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>0.21</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>0.32</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>0.32</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <v>0.32</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>0.49</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>0.25</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>0.26</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="1">
         <v>0.31</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="1">
         <v>0.31</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="1">
         <v>0.27</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>0.26</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="1">
         <v>0.31</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="1">
         <v>0.34</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="1">
         <v>0.24</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="1">
         <v>0.36</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="1">
         <v>0.16</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T26">
+      <c r="T26" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="1">
         <v>0.25</v>
       </c>
-      <c r="V26">
+      <c r="V26" s="1">
         <v>0.38</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="1">
         <v>0.3</v>
       </c>
-      <c r="X26">
+      <c r="X26" s="1">
         <v>0.47</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" s="1">
         <v>0.41</v>
       </c>
-      <c r="Z26">
+      <c r="Z26" s="1">
         <v>1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.17</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>0.05</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>0.48</v>
       </c>
-      <c r="C27">
-        <v>0.39</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D27" s="1">
         <v>0.43</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <v>0.36</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="1">
         <v>0.33</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="1">
         <v>0.45</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>0.43</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>0.42</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="1">
         <v>0.42</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="1">
         <v>0.34</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="1">
         <v>0.36</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>0.37</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="1">
         <v>0.41</v>
       </c>
-      <c r="O27">
-        <v>0.39</v>
-      </c>
-      <c r="P27">
+      <c r="O27" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="P27" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="1">
         <v>0.35</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="1">
         <v>0.23</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="1">
         <v>0.2</v>
       </c>
-      <c r="T27">
+      <c r="T27" s="1">
         <v>0.31</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="1">
         <v>0.41</v>
       </c>
-      <c r="V27">
+      <c r="V27" s="1">
         <v>0.38</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="1">
         <v>0.35</v>
       </c>
-      <c r="X27">
+      <c r="X27" s="1">
         <v>0.3</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" s="1">
         <v>0.3</v>
       </c>
-      <c r="Z27">
+      <c r="Z27" s="1">
         <v>0.12</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA27" s="2">
         <v>1</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AB27" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0.81</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AJ27" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AK27" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>0.34</v>
+      </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>0.45</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>0.54</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>0.51</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <v>0.41</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>0.42</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>0.43</v>
       </c>
-      <c r="H28">
-        <v>0.39</v>
-      </c>
-      <c r="I28">
+      <c r="H28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I28" s="1">
         <v>0.43</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="1">
         <v>0.43</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="1">
         <v>0.5</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="1">
         <v>0.49</v>
       </c>
-      <c r="M28">
-        <v>0.46</v>
-      </c>
-      <c r="N28">
-        <v>0.46</v>
-      </c>
-      <c r="O28">
+      <c r="M28" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N28" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="O28" s="1">
         <v>0.41</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="1">
         <v>0.45</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="1">
         <v>0.41</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="1">
         <v>0.25</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="1">
         <v>0.2</v>
       </c>
-      <c r="T28">
+      <c r="T28" s="1">
         <v>0.32</v>
       </c>
-      <c r="U28">
+      <c r="U28" s="1">
         <v>0.52</v>
       </c>
-      <c r="V28">
+      <c r="V28" s="1">
         <v>0.47</v>
       </c>
-      <c r="W28">
+      <c r="W28" s="1">
         <v>0.37</v>
       </c>
-      <c r="X28">
+      <c r="X28" s="1">
         <v>0.37</v>
       </c>
-      <c r="Y28">
-        <v>0.39</v>
-      </c>
-      <c r="Z28">
+      <c r="Y28" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Z28" s="1">
         <v>0.17</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA28" s="2">
         <v>0.47</v>
       </c>
-      <c r="AB28" s="1">
+      <c r="AB28" s="2">
         <v>1</v>
       </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AC28" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="AE28" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>0.76</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>0.5</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>0.5</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>0.5</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <v>0.41</v>
       </c>
-      <c r="F29">
-        <v>0.39</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="G29" s="1">
         <v>0.47</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>0.44</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>0.45</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="1">
         <v>0.45</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="1">
         <v>0.44</v>
       </c>
-      <c r="L29">
-        <v>0.46</v>
-      </c>
-      <c r="M29">
+      <c r="L29" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M29" s="1">
         <v>0.43</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="1">
         <v>0.47</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="1">
         <v>0.44</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="1">
         <v>0.44</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="1">
         <v>0.4</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="1">
         <v>0.27</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="1">
         <v>0.22</v>
       </c>
-      <c r="T29">
+      <c r="T29" s="1">
         <v>0.36</v>
       </c>
-      <c r="U29">
+      <c r="U29" s="1">
         <v>0.49</v>
       </c>
-      <c r="V29">
+      <c r="V29" s="1">
         <v>0.45</v>
       </c>
-      <c r="W29">
-        <v>0.39</v>
-      </c>
-      <c r="X29">
+      <c r="W29" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="X29" s="1">
         <v>0.36</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" s="1">
         <v>0.37</v>
       </c>
-      <c r="Z29">
+      <c r="Z29" s="1">
         <v>0.12</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA29" s="2">
         <v>0.85</v>
       </c>
-      <c r="AB29" s="1">
+      <c r="AB29" s="2">
         <v>0.8</v>
       </c>
-      <c r="AC29" s="1">
+      <c r="AC29" s="2">
         <v>1</v>
       </c>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AD29" s="2">
+        <v>0.86</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>0.67</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>0.59</v>
+      </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>0.51</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>0.51</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>0.53</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <v>0.42</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>0.4</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>0.49</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="1">
         <v>0.45</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>0.47</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="1">
         <v>0.47</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="1">
         <v>0.45</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="1">
         <v>0.47</v>
       </c>
-      <c r="M30">
-        <v>0.46</v>
-      </c>
-      <c r="N30">
+      <c r="M30" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N30" s="1">
         <v>0.5</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="1">
         <v>0.43</v>
       </c>
-      <c r="P30">
-        <v>0.46</v>
-      </c>
-      <c r="Q30">
+      <c r="P30" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="Q30" s="1">
         <v>0.41</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="1">
         <v>0.26</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="1">
         <v>0.21</v>
       </c>
-      <c r="T30">
+      <c r="T30" s="1">
         <v>0.33</v>
       </c>
-      <c r="U30">
+      <c r="U30" s="1">
         <v>0.5</v>
       </c>
-      <c r="V30">
+      <c r="V30" s="1">
         <v>0.45</v>
       </c>
-      <c r="W30">
-        <v>0.39</v>
-      </c>
-      <c r="X30">
+      <c r="W30" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="X30" s="1">
         <v>0.35</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" s="1">
         <v>0.38</v>
       </c>
-      <c r="Z30">
+      <c r="Z30" s="1">
         <v>0.19</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA30" s="2">
         <v>0.83</v>
       </c>
-      <c r="AB30" s="1">
+      <c r="AB30" s="2">
         <v>0.83</v>
       </c>
-      <c r="AC30" s="1">
+      <c r="AC30" s="2">
         <v>0.86</v>
       </c>
-      <c r="AD30" s="1">
+      <c r="AD30" s="2">
         <v>1</v>
       </c>
-      <c r="AE30" s="1"/>
-      <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AE30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="31" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>0.43</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>0.36</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>0.4</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <v>0.35</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="1">
         <v>0.34</v>
       </c>
-      <c r="G31">
-        <v>0.39</v>
-      </c>
-      <c r="H31">
-        <v>0.39</v>
-      </c>
-      <c r="I31">
+      <c r="G31" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="I31" s="1">
         <v>0.38</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="1">
         <v>0.38</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="1">
         <v>0.32</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="1">
         <v>0.33</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>0.34</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="1">
         <v>0.38</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="1">
         <v>0.41</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="1">
         <v>0.35</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="1">
         <v>0.34</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="1">
         <v>0.23</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="1">
         <v>0.21</v>
       </c>
-      <c r="T31">
+      <c r="T31" s="1">
         <v>0.3</v>
       </c>
-      <c r="U31">
+      <c r="U31" s="1">
         <v>0.34</v>
       </c>
-      <c r="V31">
+      <c r="V31" s="1">
         <v>0.34</v>
       </c>
-      <c r="W31">
+      <c r="W31" s="1">
         <v>0.32</v>
       </c>
-      <c r="X31">
+      <c r="X31" s="1">
         <v>0.32</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" s="1">
         <v>0.31</v>
       </c>
-      <c r="Z31">
+      <c r="Z31" s="1">
         <v>0.12</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA31" s="2">
         <v>0.8</v>
       </c>
-      <c r="AB31" s="1">
+      <c r="AB31" s="2">
         <v>0.36</v>
       </c>
-      <c r="AC31" s="1">
+      <c r="AC31" s="2">
         <v>0.72</v>
       </c>
-      <c r="AD31" s="1">
+      <c r="AD31" s="2">
         <v>0.6</v>
       </c>
-      <c r="AE31" s="1">
+      <c r="AE31" s="2">
         <v>1</v>
       </c>
-      <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AF31" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>0.24</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>0.43</v>
       </c>
-      <c r="C32">
-        <v>0.39</v>
-      </c>
-      <c r="D32">
+      <c r="C32" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="D32" s="1">
         <v>0.43</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <v>0.33</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="1">
         <v>0.36</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="1">
         <v>0.41</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="1">
         <v>0.38</v>
       </c>
-      <c r="I32">
-        <v>0.39</v>
-      </c>
-      <c r="J32">
-        <v>0.39</v>
-      </c>
-      <c r="K32">
+      <c r="I32" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="K32" s="1">
         <v>0.34</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="1">
         <v>0.35</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>0.36</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="1">
         <v>0.41</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="1">
         <v>0.4</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="1">
         <v>0.35</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="1">
         <v>0.18</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="1">
         <v>0.17</v>
       </c>
-      <c r="T32">
+      <c r="T32" s="1">
         <v>0.27</v>
       </c>
-      <c r="U32">
+      <c r="U32" s="1">
         <v>0.35</v>
       </c>
-      <c r="V32">
+      <c r="V32" s="1">
         <v>0.37</v>
       </c>
-      <c r="W32">
+      <c r="W32" s="1">
         <v>0.32</v>
       </c>
-      <c r="X32">
+      <c r="X32" s="1">
         <v>0.32</v>
       </c>
-      <c r="Y32">
+      <c r="Y32" s="1">
         <v>0.34</v>
       </c>
-      <c r="Z32">
+      <c r="Z32" s="1">
         <v>0.16</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA32" s="2">
         <v>0.82</v>
       </c>
-      <c r="AB32" s="1">
+      <c r="AB32" s="2">
         <v>0.41</v>
       </c>
-      <c r="AC32" s="1">
+      <c r="AC32" s="2">
         <v>0.69</v>
       </c>
-      <c r="AD32" s="1">
+      <c r="AD32" s="2">
         <v>0.71</v>
       </c>
-      <c r="AE32" s="1">
+      <c r="AE32" s="2">
         <v>0.85</v>
       </c>
-      <c r="AF32" s="1">
+      <c r="AF32" s="2">
         <v>1</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AG32" s="2">
+        <v>0.44</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>0.27</v>
+      </c>
     </row>
     <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>0.36</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>0.25</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <v>0.26</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="1">
         <v>0.18</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="1">
         <v>0.34</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="1">
         <v>0.32</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>0.3</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="1">
         <v>0.3</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="1">
         <v>0.21</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="1">
         <v>0.24</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>0.24</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="1">
         <v>0.27</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="1">
         <v>0.25</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="1">
         <v>0.26</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="1">
         <v>0.23</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="1">
         <v>0.19</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="1">
         <v>0.12</v>
       </c>
-      <c r="T33">
+      <c r="T33" s="1">
         <v>0.22</v>
       </c>
-      <c r="U33">
+      <c r="U33" s="1">
         <v>0.33</v>
       </c>
-      <c r="V33">
+      <c r="V33" s="1">
         <v>0.27</v>
       </c>
-      <c r="W33">
+      <c r="W33" s="1">
         <v>0.25</v>
       </c>
-      <c r="X33">
+      <c r="X33" s="1">
         <v>0.15</v>
       </c>
-      <c r="Y33">
+      <c r="Y33" s="1">
         <v>0.17</v>
       </c>
-      <c r="Z33">
+      <c r="Z33" s="1">
         <v>0.02</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA33" s="2">
         <v>0.83</v>
       </c>
-      <c r="AB33" s="1">
-        <v>0.39</v>
-      </c>
-      <c r="AC33" s="1">
+      <c r="AB33" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="AC33" s="2">
         <v>0.72</v>
       </c>
-      <c r="AD33" s="1">
+      <c r="AD33" s="2">
         <v>0.68</v>
       </c>
-      <c r="AE33" s="1">
+      <c r="AE33" s="2">
         <v>0.43</v>
       </c>
-      <c r="AF33" s="1">
+      <c r="AF33" s="2">
         <v>0.44</v>
       </c>
-      <c r="AG33" s="1">
+      <c r="AG33" s="2">
         <v>1</v>
       </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AH33" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>0.34</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0.31</v>
+      </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>0.38</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>0.3</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>0.33</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <v>0.26</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="1">
         <v>0.24</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="1">
         <v>0.36</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="1">
         <v>0.33</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>0.34</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="1">
         <v>0.34</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="1">
         <v>0.27</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>0.3</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="1">
         <v>0.3</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="1">
         <v>0.26</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="1">
         <v>0.25</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="1">
         <v>0.17</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="1">
         <v>0.15</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="1">
         <v>0.24</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="1">
         <v>0.34</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="W34">
+      <c r="W34" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="1">
         <v>0.22</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="1">
         <v>0.21</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="1">
         <v>0.1</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA34" s="2">
         <v>0.81</v>
       </c>
-      <c r="AB34" s="1">
+      <c r="AB34" s="2">
         <v>0.41</v>
       </c>
-      <c r="AC34" s="1">
+      <c r="AC34" s="2">
         <v>0.64</v>
       </c>
-      <c r="AD34" s="1">
+      <c r="AD34" s="2">
         <v>0.73</v>
       </c>
-      <c r="AE34" s="1">
+      <c r="AE34" s="2">
         <v>0.36</v>
       </c>
-      <c r="AF34" s="1">
+      <c r="AF34" s="2">
         <v>0.41</v>
       </c>
-      <c r="AG34" s="1">
+      <c r="AG34" s="2">
         <v>0.85</v>
       </c>
-      <c r="AH34" s="1">
+      <c r="AH34" s="2">
         <v>1</v>
       </c>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
+      <c r="AI34" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>0.33</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>0.42</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>0.52</v>
       </c>
-      <c r="E35">
-        <v>0.39</v>
-      </c>
-      <c r="F35">
+      <c r="E35" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="F35" s="1">
         <v>0.42</v>
       </c>
-      <c r="G35">
-        <v>0.39</v>
-      </c>
-      <c r="H35">
+      <c r="G35" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H35" s="1">
         <v>0.36</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>0.41</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="1">
         <v>0.41</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="1">
         <v>0.52</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="1">
         <v>0.49</v>
       </c>
-      <c r="M35">
-        <v>0.46</v>
-      </c>
-      <c r="N35">
-        <v>0.46</v>
-      </c>
-      <c r="O35">
+      <c r="M35" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N35" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="O35" s="1">
         <v>0.41</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="1">
         <v>0.44</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="1">
         <v>0.4</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="1">
         <v>0.22</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="1">
         <v>0.22</v>
       </c>
-      <c r="T35">
+      <c r="T35" s="1">
         <v>0.31</v>
       </c>
-      <c r="U35">
+      <c r="U35" s="1">
         <v>0.44</v>
       </c>
-      <c r="V35">
-        <v>0.46</v>
-      </c>
-      <c r="W35">
+      <c r="V35" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="W35" s="1">
         <v>0.35</v>
       </c>
-      <c r="X35">
-        <v>0.39</v>
-      </c>
-      <c r="Y35">
-        <v>0.39</v>
-      </c>
-      <c r="Z35">
+      <c r="X35" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="Z35" s="1">
         <v>0.19</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AA35" s="2">
         <v>0.37</v>
       </c>
-      <c r="AB35" s="1">
+      <c r="AB35" s="2">
         <v>0.76</v>
       </c>
-      <c r="AC35" s="1">
+      <c r="AC35" s="2">
         <v>0.67</v>
       </c>
-      <c r="AD35" s="1">
+      <c r="AD35" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE35" s="1">
+      <c r="AE35" s="2">
         <v>0.31</v>
       </c>
-      <c r="AF35" s="1">
+      <c r="AF35" s="2">
         <v>0.37</v>
       </c>
-      <c r="AG35" s="1">
+      <c r="AG35" s="2">
         <v>0.25</v>
       </c>
-      <c r="AH35" s="1">
+      <c r="AH35" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AI35" s="1">
+      <c r="AI35" s="2">
         <v>1</v>
       </c>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
+      <c r="AJ35" s="2">
+        <v>0.61</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>0.38</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>0.48</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>0.45</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <v>0.34</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="1">
         <v>0.35</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="1">
         <v>0.37</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="1">
         <v>0.33</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>0.36</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="1">
         <v>0.36</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="1">
         <v>0.44</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="1">
         <v>0.42</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>0.4</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="1">
         <v>0.41</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="1">
         <v>0.33</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="1">
         <v>0.38</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="1">
         <v>0.34</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="1">
         <v>0.21</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="1">
         <v>0.17</v>
       </c>
-      <c r="T36">
+      <c r="T36" s="1">
         <v>0.23</v>
       </c>
-      <c r="U36">
+      <c r="U36" s="1">
         <v>0.4</v>
       </c>
-      <c r="V36">
-        <v>0.39</v>
-      </c>
-      <c r="W36">
+      <c r="V36" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="W36" s="1">
         <v>0.3</v>
       </c>
-      <c r="X36">
+      <c r="X36" s="1">
         <v>0.3</v>
       </c>
-      <c r="Y36">
+      <c r="Y36" s="1">
         <v>0.33</v>
       </c>
-      <c r="Z36">
+      <c r="Z36" s="1">
         <v>0.21</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AA36" s="2">
         <v>0.35</v>
       </c>
-      <c r="AB36" s="1">
+      <c r="AB36" s="2">
         <v>0.73</v>
       </c>
-      <c r="AC36" s="1">
+      <c r="AC36" s="2">
         <v>0.49</v>
       </c>
-      <c r="AD36" s="1">
+      <c r="AD36" s="2">
         <v>0.7</v>
       </c>
-      <c r="AE36" s="1">
+      <c r="AE36" s="2">
         <v>0.24</v>
       </c>
-      <c r="AF36" s="1">
+      <c r="AF36" s="2">
         <v>0.32</v>
       </c>
-      <c r="AG36" s="1">
+      <c r="AG36" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AH36" s="1">
+      <c r="AH36" s="2">
         <v>0.33</v>
       </c>
-      <c r="AI36" s="1">
+      <c r="AI36" s="2">
         <v>0.61</v>
       </c>
-      <c r="AJ36" s="1">
+      <c r="AJ36" s="2">
         <v>1</v>
       </c>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
+      <c r="AK36" s="2">
+        <v>0.31</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>0.31</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <v>0.24</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="1">
         <v>0.23</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="1">
         <v>0.27</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="1">
         <v>0.24</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>0.27</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="1">
         <v>0.27</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="1">
         <v>0.26</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>0.24</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="1">
         <v>0.26</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="1">
         <v>0.26</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="1">
         <v>0.26</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="1">
         <v>0.24</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="1">
         <v>0.15</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="1">
         <v>0.11</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="1">
         <v>0.22</v>
       </c>
-      <c r="U37">
-        <v>0.39</v>
-      </c>
-      <c r="V37">
+      <c r="U37" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="V37" s="1">
         <v>0.3</v>
       </c>
-      <c r="W37">
+      <c r="W37" s="1">
         <v>0.25</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="1">
         <v>0.2</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="1">
         <v>0.21</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="1">
         <v>-0.01</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AA37" s="2">
         <v>0.37</v>
       </c>
-      <c r="AB37" s="1">
+      <c r="AB37" s="2">
         <v>0.78</v>
       </c>
-      <c r="AC37" s="1">
+      <c r="AC37" s="2">
         <v>0.71</v>
       </c>
-      <c r="AD37" s="1">
+      <c r="AD37" s="2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE37" s="1">
+      <c r="AE37" s="2">
         <v>0.31</v>
       </c>
-      <c r="AF37" s="1">
+      <c r="AF37" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG37" s="1">
+      <c r="AG37" s="2">
         <v>0.34</v>
       </c>
-      <c r="AH37" s="1">
+      <c r="AH37" s="2">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AI37" s="1">
+      <c r="AI37" s="2">
         <v>0.35</v>
       </c>
-      <c r="AJ37" s="1">
+      <c r="AJ37" s="2">
         <v>0.31</v>
       </c>
-      <c r="AK37" s="1">
+      <c r="AK37" s="2">
         <v>1</v>
       </c>
-      <c r="AL37" s="1"/>
+      <c r="AL37" s="2">
+        <v>0.74</v>
+      </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>0.32</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>0.33</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <v>0.27</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="1">
         <v>0.21</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="1">
         <v>0.27</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="1">
         <v>0.26</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="1">
         <v>0.27</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="1">
         <v>0.31</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="1">
         <v>0.31</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="1">
         <v>0.27</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="1">
         <v>0.27</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="1">
         <v>0.17</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="1">
         <v>0.12</v>
       </c>
-      <c r="T38">
+      <c r="T38" s="1">
         <v>0.2</v>
       </c>
-      <c r="U38">
+      <c r="U38" s="1">
         <v>0.4</v>
       </c>
-      <c r="V38">
+      <c r="V38" s="1">
         <v>0.25</v>
       </c>
-      <c r="W38">
+      <c r="W38" s="1">
         <v>0.24</v>
       </c>
-      <c r="X38">
+      <c r="X38" s="1">
         <v>0.17</v>
       </c>
-      <c r="Y38">
+      <c r="Y38" s="1">
         <v>0.21</v>
       </c>
-      <c r="Z38">
+      <c r="Z38" s="1">
         <v>0.05</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA38" s="2">
         <v>0.34</v>
       </c>
-      <c r="AB38" s="1">
+      <c r="AB38" s="2">
         <v>0.79</v>
       </c>
-      <c r="AC38" s="1">
+      <c r="AC38" s="2">
         <v>0.59</v>
       </c>
-      <c r="AD38" s="1">
+      <c r="AD38" s="2">
         <v>0.67</v>
       </c>
-      <c r="AE38" s="1">
+      <c r="AE38" s="2">
         <v>0.25</v>
       </c>
-      <c r="AF38" s="1">
+      <c r="AF38" s="2">
         <v>0.27</v>
       </c>
-      <c r="AG38" s="1">
+      <c r="AG38" s="2">
         <v>0.31</v>
       </c>
-      <c r="AH38" s="1">
+      <c r="AH38" s="2">
         <v>0.3</v>
       </c>
-      <c r="AI38" s="1">
+      <c r="AI38" s="2">
         <v>0.37</v>
       </c>
-      <c r="AJ38" s="1">
+      <c r="AJ38" s="2">
         <v>0.33</v>
       </c>
-      <c r="AK38" s="1">
+      <c r="AK38" s="2">
         <v>0.74</v>
       </c>
-      <c r="AL38" s="1">
+      <c r="AL38" s="2">
         <v>1</v>
       </c>
     </row>
